--- a/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
+++ b/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szdl/Desktop/PythonStudy/PythonStudy/interface_auto_practice_50/test_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="python" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="register" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,89 +29,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>case_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>TestResult</t>
   </si>
   <si>
     <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常登录</t>
   </si>
   <si>
     <t>https://client.xsdsport.com/erasports/client/customer/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"13068712118", "pwd":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"13068712118", "pwd":"123457"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13068712118", "pwd":"123458"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13068712118", "pwd":"123459"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13068712118", "pwd":"123460"}</t>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"action": "301","client_id": "","language": "zh","pwd": "e10adc3949ba59abbe56e057f20f883e","reqtimestamp": "1566454740","sign": "4ee321d1c702b574c9900c195032d647","terminal_no": "ios","token": "","user": "13068712118","version": "2.0.12","ztid": "15664547401864"}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{
+	"code":"1000",
+	"perfect":"1",
+	"expire":5184000,
+	"userId":"4353",
+	"token":"c_eca3f83b2129189c9a26f6f55d6d00b6"
+}</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>无用户名登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"action": "301","client_id": "","language": "zh","pwd": "e10adc3949ba59abbe56e057f20f883e","reqtimestamp": "1566454740","sign": "4ee321d1c702b574c9900c195032d647","terminal_no": "ios","token": "","user": "","version": "2.0.12","ztid": "15664547401864"}</t>
+  </si>
+  <si>
+    <t>{
+	"note":"用户名不能为空",
+	"code":"999"
+}</t>
   </si>
   <si>
     <t>无密码登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"action": "301","client_id": "","language": "zh","pwd": "","reqtimestamp": "1566454740","sign": "4ee321d1c702b574c9900c195032d647","terminal_no": "ios","token": "","user": "13068712118","version": "2.0.12","ztid": "15664547401864"}</t>
+  </si>
+  <si>
+    <t>{
+	"note":"密码不能为空",
+	"code":"999"
+}</t>
   </si>
   <si>
     <t>用户名错误登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"action": "301","client_id": "","language": "zh","pwd": "e10adc3949ba59abbe56e057f20f883e","reqtimestamp": "1566454740","sign": "4ee321d1c702b574c9900c195032d647","terminal_no": "ios","token": "","user": "13068712110","version": "2.0.12","ztid": "15664547401864"}</t>
+  </si>
+  <si>
+    <t>{
+	"note":"账号或密码不正确",
+	"code":"120"
+}</t>
   </si>
   <si>
     <t>密码错误登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"action": "301","client_id": "","language": "zh","pwd": "e10adc3949ba59abbe56e057f20f883f","reqtimestamp": "1566454740","sign": "4ee321d1c702b574c9900c195032d647","terminal_no": "ios","token": "","user": "13068712118","version": "2.0.12","ztid": "15664547401864"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +142,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -135,20 +183,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -474,22 +540,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,143 +564,299 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="130" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>999</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>999</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <v>120</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>120</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1">
-        <v>120</v>
-      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
+++ b/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="register" sheetId="2" r:id="rId2"/>
+    <sheet name="register" sheetId="2" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="invest" sheetId="4" r:id="rId4"/>
+    <sheet name="business" sheetId="6" r:id="rId5"/>
+    <sheet name="init" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>case_id</t>
   </si>
@@ -125,6 +128,382 @@
   </si>
   <si>
     <t>{"action": "301","client_id": "","language": "zh","pwd": "e10adc3949ba59abbe56e057f20f883f","reqtimestamp": "1566454740","sign": "4ee321d1c702b574c9900c195032d647","terminal_no": "ios","token": "","user": "13068712118","version": "2.0.12","ztid": "15664547401864"}</t>
+  </si>
+  <si>
+    <t>正常注册</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常登陆</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常充值</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'fhang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入金额</t>
+    <rPh sb="0" eb="1">
+      <t>bu'shu'ru</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入负数</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数点超3位</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'shu'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册的手机号</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou'ji'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常登录</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数点超过3位</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'shu'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chao'guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常充值</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"moblilephone":"${normal_tel}","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","password":"123456","loanId":"${loanId}","amount":"100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","password":"123456","loanId":"${loanId}","amount":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","password":"123456","loanId":"${loanId}","amount":"-100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","password":"123456","loanId":"${loanId}","amount":"100.876"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值投资专用</t>
+    <rPh sb="0" eb="1">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuan'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"moblilephone":"${admin_tel}","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${loan_member_id}", "title":"同学借钱买房",
+ "amount":200000, "loanRate":"12.0", "loanTerm":3, 
+ "loanDateType":0, "repaymentWay":11,
+ "biddingDays":5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加标</t>
+    <rPh sb="0" eb="1">
+      <t>jia'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/loan/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <rPh sb="0" eb="1">
+      <t>shen'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/loan/audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借钱的用户id(从数据库里面来，也可以自己去注册一个新用户)</t>
+    <rPh sb="0" eb="1">
+      <t>jie'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu'ju'ku'li'mian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ye'ke'yi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xin'yong'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员账号加标</t>
+    <rPh sb="0" eb="1">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang'hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t投资账户跟充值投资账户对应</t>
+    <rPh sb="1" eb="2">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang'hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhang'hu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dui'ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -183,12 +562,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,10 +582,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,9 +927,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -835,28 +1243,1368 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11003</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11007</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="105" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="56.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>15096090558</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>15096090552</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>18688773467</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>42551</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>27432</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
+++ b/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="invest" sheetId="4" r:id="rId4"/>
     <sheet name="business" sheetId="6" r:id="rId5"/>
     <sheet name="init" sheetId="5" r:id="rId6"/>
+    <sheet name="间隔" sheetId="8" r:id="rId7"/>
+    <sheet name="xsdsport" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -32,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="112">
   <si>
     <t>case_id</t>
   </si>
   <si>
-    <t>module</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -56,12 +55,6 @@
   </si>
   <si>
     <t>result</t>
-  </si>
-  <si>
-    <t>TestResult</t>
-  </si>
-  <si>
-    <t>login</t>
   </si>
   <si>
     <t>正常登录</t>
@@ -203,30 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未注册的手机号</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhu'ce</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>de</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shou'ji'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal_tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,10 +221,6 @@
   </si>
   <si>
     <t>case_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -315,36 +276,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"memberId":"${memberId}","password":"123456","loanId":"${loanId}","amount":"100"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId":"${memberId}","password":"123456","loanId":"${loanId}","amount":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId":"${memberId}","password":"123456","loanId":"${loanId}","amount":"-100"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId":"${memberId}","password":"123456","loanId":"${loanId}","amount":"100.876"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值投资专用</t>
-    <rPh sb="0" eb="1">
-      <t>chong'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tou'zi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhuan'yong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -386,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,28 +409,318 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t投资账户跟充值投资账户对应</t>
+    <t>投资账户跟充值投资账户对应</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhang'hu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dui'ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无手机号登录</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
     <rPh sb="1" eb="2">
+      <t>shou'ji'hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无密码登录</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号错误登录</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji'hao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cuo'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误登录</t>
+    <rPh sb="0" eb="1">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15096099000","pwd":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15096099001","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15096099000","pwd":"123456789"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15096099000","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15096099000","amount":"1000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15096099000","amount":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15096099000","amount":"-100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15096099000","amount":"1000.987"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复注册</t>
+    <rPh sb="0" eb="1">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未填写手机号注册</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tian'xie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'ji'hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未设置密码注册</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未填写昵称注册</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tian'xie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ni'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"123456","regname":"小小"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${unregister_tel}","pwd":"123456","regname":"小小"}</t>
+    <rPh sb="61" eb="62">
+      <t>xiao'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${unregister_tel}","pwd":"123456","regname":"小小"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${unregister_tel}","pwd":"","regname":"小小"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${unregister_tel}","pwd":"123456","regname":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${recharge_tel}","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册的手机号   tel</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou'ji'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值投资专用     normal_tel</t>
+    <rPh sb="0" eb="1">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>tou'zi</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhang'hu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gen</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chong'zhi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>tou'zi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhang'hu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>dui'ying</t>
-    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuan'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${member_id}","password":"123456","loanId":"${loanId}","amount":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${member_id}","password":"123456","loanId":"${loanId}","amount":"100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${member_id}","password":"123456","loanId":"${loan_id}","amount":"-100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${member_id}","password":"123456","loanId":"${loan_id}","amount":"100.876"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,13 +780,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,17 +819,38 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="22">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -927,362 +1184,808 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="130" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2">
-        <v>999</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2">
-        <v>999</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2">
-        <v>120</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2">
-        <v>120</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H39" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="7"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="7"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="7"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="7"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="7"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="7"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="7"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="7"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="7"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="7"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="7"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="7"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="7"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="7"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="7"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="7"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="7"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="7"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:E5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
+      <c r="E6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1291,41 +1994,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.15">
@@ -1333,16 +2038,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2">
         <v>10001</v>
@@ -1351,21 +2056,21 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2">
         <v>10001</v>
@@ -1374,21 +2079,21 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F4" s="2">
         <v>11003</v>
@@ -1397,21 +2102,21 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2">
         <v>11007</v>
@@ -1420,21 +2125,21 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1654,40 +2359,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1697,21 +2403,21 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2">
         <v>10001</v>
@@ -1731,16 +2437,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2">
         <v>10001</v>
@@ -1755,21 +2461,25 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10001</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1782,7 +2492,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2400,6 +3110,7 @@
     <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2420,7 +3131,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2433,10 +3144,10 @@
         <v>15096090558</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2447,10 +3158,10 @@
         <v>15096090552</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2461,10 +3172,10 @@
         <v>18688773467</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2475,10 +3186,10 @@
         <v>42551</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2489,10 +3200,10 @@
         <v>27432</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2501,7 +3212,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2509,7 +3220,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2517,7 +3228,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2525,7 +3236,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2533,7 +3244,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2541,7 +3252,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2549,7 +3260,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2557,7 +3268,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2565,7 +3276,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2573,7 +3284,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2607,4 +3318,199 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="7" max="7" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>999</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="122" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>999</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>120</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>120</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
+++ b/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szdl/Desktop/PythonStudy/PythonStudy/interface_auto_practice_50/test_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="809" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -20,21 +15,30 @@
     <sheet name="init" sheetId="5" r:id="rId6"/>
     <sheet name="间隔" sheetId="8" r:id="rId7"/>
     <sheet name="xsdsport" sheetId="7" r:id="rId8"/>
+    <sheet name="用例整合" sheetId="9" r:id="rId9"/>
+    <sheet name="数据库表" sheetId="10" r:id="rId10"/>
+    <sheet name="接口文档_用户" sheetId="11" r:id="rId11"/>
+    <sheet name="接口文档_项目" sheetId="12" r:id="rId12"/>
+    <sheet name="接口文档_投资" sheetId="13" r:id="rId13"/>
+    <sheet name="接口文档_流水记录" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">recharge!$A$1:$H$6</definedName>
+  </definedNames>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="456">
   <si>
     <t>case_id</t>
   </si>
@@ -133,16 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正常登陆</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'chang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>deng'lu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常充值</t>
     <rPh sb="0" eb="1">
       <t>zheng'fhang</t>
@@ -538,10 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"15096099000","pwd":"123456789"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://47.107.168.87:8080/futureloan/mvc/api/member/register</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,21 +638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"${unregister_tel}","pwd":"123456","regname":"小小"}</t>
-    <rPh sb="61" eb="62">
-      <t>xiao'xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${unregister_tel}","pwd":"123456","regname":"小小"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${unregister_tel}","pwd":"","regname":"小小"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"mobilephone":"${unregister_tel}","pwd":"123456","regname":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,6 +696,1506 @@
   </si>
   <si>
     <t>{"memberId":"${member_id}","password":"123456","loanId":"${loan_id}","amount":"100.876"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常功能测试（or 输入正确的手机号、密码、用户名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试输入&amp;步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入所有正确的参数2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupB_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupB_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常功能测试（or 输入正确的手机号、密码，不输入用户名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入所有正确的参数，但是不输入用户名2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=10001,msg:成功，String=1
+2、数据表中新增一条用户信息，并且密码是加密处理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=10001,msg:成功，String=1
+2、数据库表中新增一条用户信息，并且密码是加密处理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、不输入手机号
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20109,msg:异常，String=0
+2、数据表中不增加一条用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误格式的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入错误格式的手机号
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20109,msg:异常，String=0
+2、数据表中不增加一条用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入已注册的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入已注册的手机号
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20109,msg:异常，String=0
+2、数据表中不增加一条用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、不输入密码
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回:code=20103,msg:异常，String=0
+2、数据表中不增加一条用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupB_003</t>
+  </si>
+  <si>
+    <t>GroupB_004</t>
+  </si>
+  <si>
+    <t>GroupB_005</t>
+  </si>
+  <si>
+    <t>GroupB_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupB_013</t>
+  </si>
+  <si>
+    <t>GroupB_014</t>
+  </si>
+  <si>
+    <t>GroupB_015</t>
+  </si>
+  <si>
+    <t>GroupB_016</t>
+  </si>
+  <si>
+    <t>GroupB_017</t>
+  </si>
+  <si>
+    <t>GroupB_018</t>
+  </si>
+  <si>
+    <t>GroupB_019</t>
+  </si>
+  <si>
+    <t>GroupB_020</t>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误格式的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入未注册的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入超过两位小数的正常金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入不在0-50万之间的正常正数金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入充值金额为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入非数字金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值三笔不同金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入错误格式的手机号码
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入未注册的手机号码
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、不输入金额
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入超过两位小数的正常金额
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入不在0-50万之间的正常金额
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入充值金额为负数
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入非数字金额
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、充值三笔不同金额
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20109,msg：手机格式不正确,status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20104,msg：此手机号对应的会员不存在，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20115,msg:请输入金额，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20116,msg:输入金额的金额小数不能超过两位，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表（Member）会员表，保存平台会员数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 普通会员
+2 内部员工
+5 测试用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20117,msg:请输入范围在0到50万之间的正数金额，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20117,msg:请输入范围在0-50万之间的正数金额，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20118,msg:请输入数字，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=10001,msg:成功，status=1
+2、member表用户余额发生变动，金额叠加正确
+3、financelog表增加三条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupB_021</t>
+  </si>
+  <si>
+    <t>GroupB_022</t>
+  </si>
+  <si>
+    <t>提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现金额为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入手机号码和提现金额
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、code=10001,msg:成功，status=1
+2、数据表中新增一条提现信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机号码为空，输入提现金额
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入手机号码，提现金额为空
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=20103,msg:参数错误：参数不能为空，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code:msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口执行状态：1表示成功0表示异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001：成功
+20102：服务器异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资、竞标(bidLoan)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/bidLoan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式：GET/POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moblilephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新会员的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6到18位（最少6位，最长18位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code:msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口执行状态，1表示成功，0表示异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001：成功
+20102：服务器异常
+20103：参数错误，参数不正常不能为空
+20108：密码长度必须为6~18
+20109：手机号码格式不正确
+20110：手机号码已被注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001：成功
+20102：服务器异常
+20103：参数错误，参数不能为空
+20111：用户名或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值人的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0到50万之间的正数金额，最多精确到小数点后两位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/withdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001:成功
+20102:服务器异常
+20103：参数错误，参数不能为空
+20104：此手机号对应的会员不存在
+20109：手机格式不正确
+20115：请输入金额
+20116：输入金额的金额小数不能超过两位
+20117：请输入范围在0到50万之间的正数金额
+20118：请输入数字
+20119：余额不足，请修改提现金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增项目(add)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/loan/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款期限类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞标天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanTerm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanDateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repaymentWay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biddingDays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的memberid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如年化18.0%，存储为18.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如6个月为6，30天为30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款期限单位 0-按月 2-按天 4-按周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-一次性 
+5按月等额本息 
+10按月等额本息线下 
+11按月付息到期还本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户所有投资记录（getInvestsByMemberId）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/invest/getInvestsByMemberId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001：成功
+30102：服务器异常
+30103：参数错误，参数不能为空
+30104：参数错误：参数必须是数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资记录数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取标的所有投资记录（getInvestsByLoanId）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/invest/getInvestsByLoanId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户流水记录(getFinanceLogList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/financelog/getFinanceLogList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001：成功
+50102：服务器异常
+50103：参数错误，参数不能为空
+50104：参数错误：参数必须是数字
+50105：用户id必须大于0
+50106：不存在该用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水记录数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupB_023</t>
+  </si>
+  <si>
+    <t>GroupB_024</t>
+  </si>
+  <si>
+    <t>GroupB_025</t>
+  </si>
+  <si>
+    <t>GroupB_026</t>
+  </si>
+  <si>
+    <t>GroupB_027</t>
+  </si>
+  <si>
+    <t>手机号码未注册过会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入未注册过会员的手机号码，提现金额
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=20115,msg:请输入金额，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=20104,msg:此手机号对应的会员不存在，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码不符合规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入不符合规则的手机号码、提现金额
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=20109,msg：手机格式不正确，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入金额的小数超过两位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入手机号码，小数超过两位的提现金额
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=20116,msg:输入金额的金额小数不能超过两位，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额不在0-50万范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入手机号码，提现金额不在0-50万范围内
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=20117,msg:请输入范围在0到50万之间的正数金额，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码不是纯数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入不是纯数字的手机号码，提现金额
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=20118,msg:请输入数字，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupB_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupB_007</t>
+  </si>
+  <si>
+    <t>GroupB_008</t>
+  </si>
+  <si>
+    <t>GroupB_009</t>
+  </si>
+  <si>
+    <t>GroupB_010</t>
+  </si>
+  <si>
+    <t>GroupB_011</t>
+  </si>
+  <si>
+    <t>输入错误格式的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入错误格式的密码
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20108,msg:异常，String=0
+2、数据表中不增加一条用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入包含特殊字符的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入包含特殊字符的密码
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20103,msg:异常，String=0
+2、数据表中不增加一条用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常功能测试（or 输入正确的手机号、密码、用户名），但是在网络异常情况下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入所有正确的参数
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20103,msg:异常，String=0
+3、数据表中不增加一条用户信息</t>
+  </si>
+  <si>
+    <t>正常功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=10001,msg:成功，status=1
+2、member表用户余额发生变化
+3、financelog表增加一条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入正确的参数
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、不输入手机号码
+2、提交测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、返回：code=20103,msg:参数不能为空，status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目（标）表（Loan）会员表，保存平台项目（标）数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Id(作为外键，只带用户表中的Id,表示是谁借款)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demical(18,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demical(3,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年利率，如年化18.0%，存储18.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001:成功
+20102:服务器异常
+20103：参数错误，参数不能为空
+20104：此手机号对应的会员不存在
+20109：手机格式不正确
+20115：请输入金额
+20116：输入金额的金额小数不能超过两位
+20117：请输入范围在0到50万之间的正数金额
+20118：请输入数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的登录密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001:竞标成功
+11002:服务器异常
+11003：参数错误，参数不能为空
+11004：参数错误，memberId必须大于0的正整数
+11005：参数错误，loanId必须大于0的正整数
+11006：参数错误，password长度必须大于6位且小于18位
+11007：参数错误，投资金额必须能被100整除的正整数
+11008：不存在该用户
+11009：不存在该标的
+11010：该标不在竞标中状态，无法完成投标
+11011：该标已经满标，无法进行投资
+11012：该表可投金额不足
+11013：请根据数值参数的类型对应输入合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001：成功
+20102：服务器异常
+20103：参数错误，参数不能为空
+20104：参数错误：用户ID memberId必须否正整数
+20105：不存在该会员
+20106：参数错误：借款金额amount必须为大于1000并能被100整除的正整数
+20107：参数错误：借款利率loanRate值必须大于0小于等于24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资记录表（invest），保存平台投资记录数据，用户投资后就会在表里新增一条投资数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsValid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标Id(作为外键，指代Loan表中的Id,表示投资的是哪个用户)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Id(作为外键，指代Member表中的Id,表示是哪个用户投资)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有效：0无效1有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanTerm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款期限 如6个月为6，30天为30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanDateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款期限类型 借款期限单位 0-按月 2-按天 4-按周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiddingDays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞标天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiddingStartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞标开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满标时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态
+1：审核中
+2：二审(初审中)
+3：三审（复审中）
+4：竞标中
+5：核保审批
+6：平台终审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15096099000","pwd":"123456789"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常登录</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${tel}","pwd":"","regname":"小小"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${tel_1}","pwd":"123456","regname":"小小"}</t>
+    <rPh sb="52" eb="53">
+      <t>xiao'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${tel_1}","pwd":"123456","regname":"小小"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核(audit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:审核中
+2：二审(初审中)
+3：三审(复审中)
+4：竞标中
+5：核保审批
+6：平台终审
+7：还款中
+8：审核不通过
+9：流标
+10：还款完成
+11：申请流标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001：成功
+20202：服务器异常
+20203：参数错误，参数不能为空
+20204：参数错误：、错误的标id值
+20205：参数错误：非法status参数，状态值1-11
+20206：不存在该项目
+20207：修改失败，当前表已经该状态
+20208：审核不通过，流标、还款完成的标不</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +2203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -762,16 +2237,62 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3366FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF660066"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000090"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -779,8 +2300,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -803,8 +2339,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -827,30 +2389,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="22">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="48">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1187,143 +2871,143 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>437</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="43">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+        <v>67</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="43">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="43">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="43">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1333,7 +3017,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1343,7 +3027,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1353,7 +3037,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1363,7 +3047,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1373,7 +3057,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1383,7 +3067,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1393,7 +3077,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1403,7 +3087,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1413,7 +3097,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1423,7 +3107,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1433,7 +3117,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1443,7 +3127,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1453,7 +3137,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1463,7 +3147,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1473,7 +3157,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1489,7 +3173,2178 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
+      <c r="A7" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="105">
+      <c r="A25" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="1:6" ht="30">
+      <c r="A31" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30">
+      <c r="A32" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A28:F28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="105">
+      <c r="A12" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60">
+      <c r="A24" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30">
+      <c r="A31" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="31"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:5" ht="169" customHeight="1">
+      <c r="A36" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="29">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30">
+      <c r="A43" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="184" customHeight="1">
+      <c r="A48" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30">
+      <c r="A58" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" s="16"/>
+      <c r="E64" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="292" customHeight="1">
+      <c r="A72" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="152" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>445</v>
+      </c>
+      <c r="B24" t="s">
+        <v>446</v>
+      </c>
+      <c r="C24" t="s">
+        <v>447</v>
+      </c>
+      <c r="D24" t="s">
+        <v>448</v>
+      </c>
+      <c r="E24" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="165">
+      <c r="A25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B25" t="s">
+        <v>451</v>
+      </c>
+      <c r="C25" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="150">
+      <c r="A30" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60">
+      <c r="A11" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A11:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="90">
+      <c r="A21" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1498,10 +5353,10 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
@@ -1511,251 +5366,251 @@
     <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="51" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="45" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="52" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="47" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="53" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="B7" s="7"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="B8" s="7"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="B9" s="7"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="B10" s="7"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="B11" s="7"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="B12" s="7"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="B13" s="7"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="B14" s="7"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="B15" s="7"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" s="7"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="7"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="7"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="7"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="7"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="7"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="7"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="7"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7">
       <c r="B24" s="7"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7">
       <c r="B25" s="7"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7">
       <c r="B26" s="7"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" s="7"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7">
       <c r="B28" s="7"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7">
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7">
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7">
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7">
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="7:7">
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="7:7">
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="7:7">
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="7:7">
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="7:7">
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="7:7">
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="7:7">
       <c r="G39" s="4"/>
     </row>
   </sheetData>
@@ -1765,6 +5620,11 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1773,10 +5633,10 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
@@ -1784,138 +5644,138 @@
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>435</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1926,7 +5786,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1937,7 +5797,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1948,7 +5808,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1959,7 +5819,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1970,7 +5830,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1987,6 +5847,11 @@
     <hyperlink ref="B2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1998,7 +5863,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="39.1640625" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
@@ -2006,48 +5871,48 @@
     <col min="5" max="5" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2">
         <v>10001</v>
@@ -2056,21 +5921,21 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="50" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2">
         <v>10001</v>
@@ -2079,21 +5944,21 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="55" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2">
         <v>11003</v>
@@ -2102,21 +5967,21 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="56" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2">
         <v>11007</v>
@@ -2125,28 +5990,28 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="55" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2157,7 +6022,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2168,7 +6033,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2179,7 +6044,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2190,7 +6055,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2201,7 +6066,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2212,7 +6077,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2223,7 +6088,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2234,7 +6099,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2245,7 +6110,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2256,7 +6121,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2267,7 +6132,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2278,7 +6143,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2289,7 +6154,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2300,7 +6165,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2311,7 +6176,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2322,7 +6187,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2333,7 +6198,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2352,6 +6217,11 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2359,41 +6229,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2403,21 +6273,21 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2">
         <v>10001</v>
@@ -2432,21 +6302,21 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="105" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="105">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F3" s="2">
         <v>10001</v>
@@ -2461,21 +6331,21 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="30">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2">
         <v>10001</v>
@@ -2490,7 +6360,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
@@ -2507,7 +6377,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2524,7 +6394,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2541,7 +6411,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2558,7 +6428,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2575,7 +6445,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2592,7 +6462,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2609,7 +6479,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2626,7 +6496,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2643,7 +6513,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2660,7 +6530,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2677,7 +6547,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2694,7 +6564,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2711,7 +6581,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2728,7 +6598,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2745,7 +6615,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2762,7 +6632,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2779,7 +6649,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2796,7 +6666,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2813,7 +6683,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2830,7 +6700,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2847,7 +6717,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2864,7 +6734,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2881,7 +6751,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2898,7 +6768,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2915,7 +6785,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2932,7 +6802,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2949,7 +6819,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2966,7 +6836,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2983,7 +6853,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3000,7 +6870,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3017,7 +6887,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3034,7 +6904,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3051,7 +6921,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3068,7 +6938,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3085,7 +6955,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3111,6 +6981,11 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3122,16 +6997,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3139,77 +7014,77 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>15096090558</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>15096090552</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>18688773467</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>42551</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>27432</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
@@ -3217,7 +7092,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
@@ -3225,7 +7100,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
@@ -3233,7 +7108,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
@@ -3241,7 +7116,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5"/>
@@ -3249,7 +7124,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5"/>
@@ -3257,7 +7132,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5"/>
@@ -3265,7 +7140,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5"/>
@@ -3273,7 +7148,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
@@ -3281,7 +7156,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5"/>
@@ -3289,7 +7164,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3297,7 +7172,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3305,7 +7180,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3317,6 +7192,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3328,10 +7208,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3343,7 +7228,7 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
@@ -3352,7 +7237,7 @@
     <col min="7" max="7" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3375,10 +7260,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="127" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3404,7 +7289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="120" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3430,7 +7315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="122" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="122" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3456,7 +7341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="127" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3482,7 +7367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="129" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3512,5 +7397,515 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="60">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="60">
+      <c r="A4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="60">
+      <c r="A5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="60">
+      <c r="A6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="60">
+      <c r="A9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="60">
+      <c r="A11" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="45">
+      <c r="A13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="45">
+      <c r="A14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="45">
+      <c r="A16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="45">
+      <c r="A17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="45">
+      <c r="A18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="75">
+      <c r="A20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="45">
+      <c r="A21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="45">
+      <c r="A22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45">
+      <c r="A23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45">
+      <c r="A24" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45">
+      <c r="A25" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45">
+      <c r="A26" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45">
+      <c r="A27" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45">
+      <c r="A28" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
+++ b/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szdl/Desktop/PythonStudy/PythonStudy/interface_auto_practice_50/test_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="809" activeTab="11"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="26780" windowHeight="17540" tabRatio="809" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -23,22 +28,22 @@
     <sheet name="接口文档_流水记录" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">recharge!$A$1:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">recharge!$A$1:$I$6</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="478">
   <si>
     <t>case_id</t>
   </si>
@@ -210,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>case_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,16 +241,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常充值</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'chang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chong'zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,22 +543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"15096099000","amount":"1000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"15096099000","amount":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"15096099000","amount":"-100"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"15096099000","amount":"1000.987"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,10 +614,6 @@
   </si>
   <si>
     <t>{"mobilephone":"${unregister_tel}","pwd":"123456","regname":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${recharge_tel}","pwd":"123456"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2198,12 +2169,300 @@
 20208：审核不通过，流标、还款完成的标不</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>生成回款计划(generateRepayments)</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'kuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址：</t>
+    <rPh sb="0" eb="1">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/loan/generateRepayments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式：</t>
+    <rPh sb="0" eb="1">
+      <t>qing'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001：生成回款计划成功
+20402：服务器异常
+20403：参数错误
+20404：不存在该项目，生成回款计划失败
+20405：该项目不在核保审批或终审状态，无法生成回款计划
+20406：请根据参数类型对应输入，数值类型只能输入数字</t>
+    <rPh sb="6" eb="7">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui'kuan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cheng'gong</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>bu'cun'zai</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>hui'kuan'ji'hua</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>gai'xiang'mu</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>bu'zai</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>he'bao</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>shen'pi</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>zhong'shen</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>zhuang'tai</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>wu'fa</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>hui'kuan</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>qing'gen'ju</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>shu'zhi</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>shu'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <rPh sb="0" eb="1">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取标列表(getLoanList)</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/loan/getLoanList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数：</t>
+    <rPh sb="0" eb="1">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001：生成标列表成功
+20302：服务器异常
+20303：获取标列表失败</t>
+    <rPh sb="6" eb="7">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lei'biao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng'gong</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shi'bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常投资</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_tel}","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_tel}","amount":"1000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_tel}","amount":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_tel}","amount":"-100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_tel}","amount":"1000.987"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sql":"select LeaveAmount from member where MobilePhone=${normal_tel}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2241,6 +2500,7 @@
       <sz val="12"/>
       <color rgb="FF3366FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2248,6 +2508,7 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2255,12 +2516,14 @@
       <sz val="12"/>
       <color rgb="FF660066"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2268,6 +2531,15 @@
       <sz val="12"/>
       <color rgb="FF000090"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2316,7 +2588,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -2365,8 +2637,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2482,59 +2759,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="53">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2874,16 +3160,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>31</v>
@@ -2892,122 +3178,122 @@
         <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="45">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.15">
       <c r="A3" s="43">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
     </row>
-    <row r="4" spans="1:8" ht="45">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.15">
       <c r="A4" s="43">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="45">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.15">
       <c r="A5" s="43">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="45">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.15">
       <c r="A6" s="43">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3017,7 +3303,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3027,7 +3313,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3037,7 +3323,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3047,7 +3333,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3057,7 +3343,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3067,7 +3353,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3077,7 +3363,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3087,7 +3373,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3097,7 +3383,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3107,7 +3393,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3117,7 +3403,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3127,7 +3413,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3137,7 +3423,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3147,7 +3433,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3157,7 +3443,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3174,11 +3460,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3190,158 +3471,158 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="38" t="s">
+      <c r="B4" s="38" t="s">
         <v>175</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>182</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>178</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>185</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="38" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="38" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3349,7 +3630,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3357,231 +3638,231 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-    </row>
-    <row r="13" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="37" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B13" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="38" t="s">
+      <c r="D14" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="E14" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>188</v>
-      </c>
       <c r="F14" s="38"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="38" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="38" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="39" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="38" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="38" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="105">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3589,7 +3870,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3597,130 +3878,130 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="37" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B29" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="38" t="s">
+      <c r="D30" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="E30" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>188</v>
-      </c>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6" ht="30">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A31" s="39" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="39"/>
       <c r="F32" s="40" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="38" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="39" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="41" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3732,11 +4013,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3748,1219 +4024,1451 @@
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="C7" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="105">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="D23" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="60">
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="28"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="30" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="27" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="17" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
       <c r="E32" s="31"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
       <c r="D33" s="28"/>
       <c r="E33" s="31"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="D35" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>225</v>
-      </c>
       <c r="E35" s="31"/>
     </row>
-    <row r="36" spans="1:5" ht="169" customHeight="1">
+    <row r="36" spans="1:5" ht="169" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="28"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="29">
         <v>1.1399999999999999</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="28"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="27" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="27" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.15">
       <c r="A43" s="23" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="28"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="27"/>
       <c r="D45" s="28"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="D47" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="184" customHeight="1">
+    </row>
+    <row r="48" spans="1:5" ht="184" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="23" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
       <c r="D49" s="28"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="11" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B56" s="20" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="C56" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="16" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+      <c r="B57" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+      <c r="A58" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B53" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
+      <c r="B58" s="16" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="20" t="s">
+      <c r="C58" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" s="20" t="s">
+      <c r="D58" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="16" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>220</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="B61" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>224</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30">
-      <c r="A58" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>227</v>
-      </c>
-      <c r="B60" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="36" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="36" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="36" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B67" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>299</v>
-      </c>
       <c r="D67" s="16" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="26" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="27"/>
       <c r="D69" s="28"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="D71" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="292" customHeight="1">
+    </row>
+    <row r="72" spans="1:5" ht="292" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="23" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="13">
         <v>1.2</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="34" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>219</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>292</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>299</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="E10" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="E11" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.15">
+      <c r="A12" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D12" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60">
-      <c r="A12" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="E12" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="D13" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>309</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="152" customHeight="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="152" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C18" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>434</v>
+      </c>
+      <c r="B21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="165" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="150" x14ac:dyDescent="0.15">
+      <c r="A30" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="C30" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="45" t="s">
+        <v>462</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32" s="45"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B33" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>453</v>
+      </c>
+      <c r="B34" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B35" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+      <c r="A40" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>453</v>
+      </c>
+      <c r="B45" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C47" s="16" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="D47" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E47" s="16" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>443</v>
-      </c>
-      <c r="B22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>445</v>
-      </c>
-      <c r="B24" t="s">
-        <v>446</v>
-      </c>
-      <c r="C24" t="s">
-        <v>447</v>
-      </c>
-      <c r="D24" t="s">
-        <v>448</v>
-      </c>
-      <c r="E24" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="165">
-      <c r="A25" t="s">
-        <v>450</v>
-      </c>
-      <c r="B25" t="s">
-        <v>451</v>
-      </c>
-      <c r="C25" t="s">
-        <v>452</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E25" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="150">
-      <c r="A30" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="23" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+      <c r="A52" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="B52" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="21" t="s">
         <v>455</v>
       </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="D54" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4972,216 +5480,211 @@
       <selection activeCell="A5" sqref="A5:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="13">
         <v>1.3</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.15">
+      <c r="A11" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="35" t="s">
+      <c r="D12" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="35" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B13" s="16" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="C13" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60">
-      <c r="A11" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="36" t="s">
+      <c r="E18" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>326</v>
-      </c>
       <c r="C19" s="16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="23" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5193,146 +5696,146 @@
       <selection activeCell="A15" sqref="A15:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>1.4</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="35" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="90">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D23" s="16"/>
     </row>
@@ -5340,11 +5843,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5356,7 +5854,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
@@ -5366,9 +5864,9 @@
     <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>31</v>
@@ -5377,22 +5875,22 @@
         <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="51" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5400,19 +5898,19 @@
         <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1">
+    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5420,197 +5918,197 @@
         <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="52" customHeight="1">
+    <row r="4" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="47" customHeight="1">
+    <row r="5" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="53" customHeight="1">
+    <row r="6" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="7"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="7:7">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="7:7">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="7:7">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G39" s="4"/>
     </row>
   </sheetData>
@@ -5620,33 +6118,29 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>31</v>
@@ -5654,128 +6148,374 @@
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>72</v>
+      <c r="D1" s="44" t="s">
+        <v>471</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="45">
+      <c r="I1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="45">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="45">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="45">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="45">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11003</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11007</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5786,7 +6526,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5797,7 +6537,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5808,7 +6548,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5819,7 +6559,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5830,7 +6570,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5841,243 +6581,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="39.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10001</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="50" customHeight="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10001</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="55" customHeight="1">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2">
-        <v>11003</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="56" customHeight="1">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="2">
-        <v>11007</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="55" customHeight="1">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6088,7 +6592,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6099,7 +6603,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6110,7 +6614,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6121,7 +6625,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6132,7 +6636,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6143,7 +6647,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6154,7 +6658,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6165,7 +6669,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6176,7 +6680,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6187,7 +6691,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6198,7 +6702,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6217,11 +6721,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6230,40 +6729,41 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -6273,7 +6773,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="45">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6281,13 +6781,13 @@
         <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2">
         <v>10001</v>
@@ -6302,21 +6802,21 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="105">
+    <row r="3" spans="1:15" ht="105" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F3" s="2">
         <v>10001</v>
@@ -6331,21 +6831,21 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2">
         <v>10001</v>
@@ -6360,7 +6860,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
@@ -6377,7 +6877,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6394,7 +6894,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6411,7 +6911,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6428,7 +6928,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -6445,7 +6945,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6462,7 +6962,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6479,7 +6979,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6496,7 +6996,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6513,7 +7013,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6530,7 +7030,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6547,7 +7047,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6564,7 +7064,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6581,7 +7081,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6598,7 +7098,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6615,7 +7115,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6632,7 +7132,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6649,7 +7149,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6666,7 +7166,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6683,7 +7183,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6700,7 +7200,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6717,7 +7217,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -6734,7 +7234,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -6751,7 +7251,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -6768,7 +7268,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6785,7 +7285,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6802,7 +7302,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6819,7 +7319,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6836,7 +7336,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6853,7 +7353,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6870,7 +7370,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6887,7 +7387,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6904,7 +7404,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -6921,7 +7421,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -6938,7 +7438,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -6955,7 +7455,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -6981,11 +7481,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6997,14 +7492,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -7014,77 +7509,77 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>15096090558</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>15096090552</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>18688773467</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42551</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>27432</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
@@ -7092,7 +7587,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
@@ -7100,7 +7595,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
@@ -7108,7 +7603,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
@@ -7116,7 +7611,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5"/>
@@ -7124,7 +7619,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5"/>
@@ -7132,7 +7627,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5"/>
@@ -7140,7 +7635,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5"/>
@@ -7148,7 +7643,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
@@ -7156,7 +7651,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5"/>
@@ -7164,7 +7659,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -7172,7 +7667,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7180,7 +7675,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7192,11 +7687,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7208,15 +7698,10 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7228,7 +7713,7 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
@@ -7237,7 +7722,7 @@
     <col min="7" max="7" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7260,10 +7745,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="127" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -7289,7 +7774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="120" customHeight="1">
+    <row r="3" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7315,7 +7800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="122" customHeight="1">
+    <row r="4" spans="1:8" ht="122" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -7341,7 +7826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="127" customHeight="1">
+    <row r="5" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -7367,7 +7852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="129" customHeight="1">
+    <row r="6" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7397,11 +7882,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7413,485 +7893,485 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60">
-      <c r="A2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="60">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="44"/>
+        <v>111</v>
+      </c>
+      <c r="B3" s="46"/>
       <c r="C3" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="60">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="44"/>
+        <v>128</v>
+      </c>
+      <c r="B4" s="46"/>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="60">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="44"/>
+        <v>129</v>
+      </c>
+      <c r="B5" s="46"/>
       <c r="C5" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="44"/>
+        <v>130</v>
+      </c>
+      <c r="B6" s="46"/>
       <c r="C6" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="60">
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B7" s="44"/>
+        <v>349</v>
+      </c>
+      <c r="B7" s="46"/>
       <c r="C7" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="60">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="60">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="8" t="s">
-        <v>365</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B10" s="44"/>
+        <v>352</v>
+      </c>
+      <c r="B10" s="46"/>
       <c r="C10" s="9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="60">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>147</v>
+        <v>353</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B12" s="44"/>
+        <v>354</v>
+      </c>
+      <c r="B12" s="46"/>
       <c r="C12" s="8" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="45">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="44"/>
+        <v>131</v>
+      </c>
+      <c r="B13" s="46"/>
       <c r="C13" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="44"/>
+        <v>132</v>
+      </c>
+      <c r="B14" s="46"/>
       <c r="C14" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="30">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="44"/>
+        <v>133</v>
+      </c>
+      <c r="B15" s="46"/>
       <c r="C15" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="45">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="44"/>
+        <v>134</v>
+      </c>
+      <c r="B16" s="46"/>
       <c r="C16" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="45">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="44"/>
+        <v>135</v>
+      </c>
+      <c r="B17" s="46"/>
       <c r="C17" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="45">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="44"/>
+        <v>136</v>
+      </c>
+      <c r="B18" s="46"/>
       <c r="C18" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="44"/>
+        <v>137</v>
+      </c>
+      <c r="B19" s="46"/>
       <c r="C19" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="75">
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="44"/>
+        <v>138</v>
+      </c>
+      <c r="B20" s="46"/>
       <c r="C20" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="45">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>199</v>
+        <v>139</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>192</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B22" s="44"/>
+        <v>190</v>
+      </c>
+      <c r="B22" s="46"/>
       <c r="C22" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" s="44"/>
+        <v>191</v>
+      </c>
+      <c r="B23" s="46"/>
       <c r="C23" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="45">
-      <c r="A24" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E24" s="9" t="s">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="10" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="45">
-      <c r="A25" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E27" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="E25" s="9" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="8" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="45">
-      <c r="A26" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E28" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45">
-      <c r="A27" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="45">
-      <c r="A28" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7902,10 +8382,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
+++ b/PythonStudy/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szdl/Desktop/PythonStudy/PythonStudy/interface_auto_practice_50/test_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="26780" windowHeight="17540" tabRatio="809" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -32,11 +27,11 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -606,14 +601,6 @@
     <rPh sb="5" eb="6">
       <t>zhu'ce</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"123456","regname":"小小"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${unregister_tel}","pwd":"123456","regname":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2074,17 +2061,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"${tel_1}","pwd":"123456","regname":"小小"}</t>
-    <rPh sb="52" eb="53">
-      <t>xiao'xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${tel_1}","pwd":"123456","regname":"小小"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2455,6 +2431,25 @@
   </si>
   <si>
     <t>{"sql":"select LeaveAmount from member where MobilePhone=${normal_tel}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${NoRegTel}","pwd":"123456","regname":"小小"}</t>
+    <rPh sb="55" eb="56">
+      <t>xiao'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"123456","regname":"小小"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${NoRegTel}","pwd":"123456","regname":"小小"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${NoRegTel}","pwd":"123456","regname":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2768,59 +2763,59 @@
     </xf>
   </cellXfs>
   <cellStyles count="53">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3156,18 +3151,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -3193,7 +3188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3201,7 +3196,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
@@ -3213,7 +3208,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="45">
       <c r="A3" s="43">
         <v>2</v>
       </c>
@@ -3221,7 +3216,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>88</v>
@@ -3233,7 +3228,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="45">
       <c r="A4" s="43">
         <v>3</v>
       </c>
@@ -3241,7 +3236,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>86</v>
@@ -3253,7 +3248,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="45">
       <c r="A5" s="43">
         <v>4</v>
       </c>
@@ -3261,7 +3256,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>475</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>87</v>
@@ -3273,7 +3268,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" s="43">
         <v>5</v>
       </c>
@@ -3281,7 +3276,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>477</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>89</v>
@@ -3293,7 +3288,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3303,7 +3298,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3313,7 +3308,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3323,7 +3318,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3333,7 +3328,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3343,7 +3338,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3353,7 +3348,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3363,7 +3358,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3373,7 +3368,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3383,7 +3378,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3393,7 +3388,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3403,7 +3398,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3413,7 +3408,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3423,7 +3418,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3433,7 +3428,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3443,7 +3438,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3460,6 +3455,11 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3471,16 +3471,16 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -3488,141 +3488,141 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="D2" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="37" t="s">
+      <c r="C3" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="38" t="s">
+      <c r="B4" s="38" t="s">
         <v>173</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>175</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3630,7 +3630,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3638,9 +3638,9 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="47" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -3648,221 +3648,221 @@
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="D13" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>174</v>
-      </c>
       <c r="C14" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>181</v>
-      </c>
       <c r="F14" s="38"/>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="39" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F15" s="40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>381</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="39" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F19" s="40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20" s="39" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>412</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F20" s="40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>415</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="39" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="38" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="38" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="105">
       <c r="A25" s="39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="F25" s="40" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3870,7 +3870,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3878,9 +3878,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="47" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
@@ -3888,120 +3888,120 @@
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="D29" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>174</v>
-      </c>
       <c r="C30" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>181</v>
-      </c>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="30">
       <c r="A31" s="39" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30">
       <c r="A32" s="39" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="39"/>
       <c r="F32" s="40" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="39" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="41" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4013,6 +4013,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4024,835 +4029,840 @@
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="12" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="B6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C7" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>215</v>
-      </c>
       <c r="C11" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="105">
+      <c r="A12" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>255</v>
-      </c>
       <c r="E18" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>256</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="20" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="B23" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60">
+      <c r="A24" s="23" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A24" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>217</v>
-      </c>
       <c r="D24" s="21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="28"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D30" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30">
+      <c r="A31" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="A31" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
       <c r="E32" s="31"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
       <c r="D33" s="28"/>
       <c r="E33" s="31"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="20" t="s">
+      <c r="B35" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:5" ht="169" customHeight="1">
+      <c r="A36" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="16" t="s">
+      <c r="B36" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="31"/>
-    </row>
-    <row r="36" spans="1:5" ht="169" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>217</v>
-      </c>
       <c r="D36" s="21" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="28"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="29">
         <v>1.1399999999999999</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="28"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D42" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30">
+      <c r="A43" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="A43" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="27"/>
       <c r="D45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B46" s="20" t="s">
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="20" t="s">
+      <c r="B47" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="184" customHeight="1">
+      <c r="A48" s="23" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B47" s="16" t="s">
+      <c r="B48" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="184" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>217</v>
-      </c>
       <c r="D48" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
       <c r="D49" s="28"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
         <v>203</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>205</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>207</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="20" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+      <c r="B56" s="20" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="20" t="s">
+      <c r="C56" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="20" t="s">
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="20" t="s">
+      <c r="B57" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30">
+      <c r="A58" s="16" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B57" s="16" t="s">
+      <c r="B58" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="D58" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D57" s="16" t="s">
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="A58" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D58" s="21" t="s">
+      <c r="B60" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>220</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>222</v>
       </c>
-      <c r="B61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D65" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="B66" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E65" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="36" t="s">
+      <c r="C66" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="D66" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="B67" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D66" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>393</v>
-      </c>
       <c r="E67" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="27"/>
       <c r="D69" s="28"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5">
       <c r="A70" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B70" s="20" t="s">
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D70" s="20" t="s">
+      <c r="B71" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="292" customHeight="1">
+      <c r="A72" s="23" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B71" s="16" t="s">
+      <c r="B72" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="292" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>217</v>
-      </c>
       <c r="D72" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4864,604 +4874,604 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="13">
         <v>1.2</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="34" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>276</v>
-      </c>
       <c r="B7" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="E11" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B12" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C12" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D12" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="E12" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>302</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>215</v>
-      </c>
       <c r="C17" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="152" customHeight="1" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="152" customHeight="1">
       <c r="A18" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>432</v>
+      </c>
+      <c r="B22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="165">
+      <c r="A25" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="D29" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>434</v>
-      </c>
-      <c r="B21" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B22" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="165" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="B25" s="16" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="150">
+      <c r="A30" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="E25" s="16" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="C32" s="45"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="150" x14ac:dyDescent="0.15">
-      <c r="A30" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="45" t="s">
+      <c r="B33" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>461</v>
+      </c>
+      <c r="B35" t="s">
         <v>462</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="C32" s="45"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>451</v>
-      </c>
-      <c r="B33" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>453</v>
-      </c>
-      <c r="B34" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>465</v>
-      </c>
-      <c r="B35" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" s="19" t="s">
+      <c r="C38" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="15" t="s">
+      <c r="B39" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>215</v>
-      </c>
       <c r="C39" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45">
       <c r="A40" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="22" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D41" s="21"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="27"/>
       <c r="D42" s="28"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>447</v>
+      </c>
+      <c r="B44" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>449</v>
+      </c>
+      <c r="B45" t="s">
         <v>450</v>
       </c>
-      <c r="B43" s="45" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>451</v>
-      </c>
-      <c r="B44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>453</v>
-      </c>
-      <c r="B45" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>212</v>
-      </c>
       <c r="E46" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="14"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" s="19" t="s">
+      <c r="C50" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="15" t="s">
+      <c r="B51" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>215</v>
-      </c>
       <c r="C51" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="135">
       <c r="A52" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D52" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="D53" s="16"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="16" t="s">
+      <c r="C54" s="36" t="s">
         <v>457</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>461</v>
       </c>
       <c r="D54" s="16"/>
     </row>
@@ -5469,6 +5479,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5480,211 +5495,216 @@
       <selection activeCell="A5" sqref="A5:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="13">
         <v>1.3</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="35" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60">
+      <c r="A11" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>203</v>
       </c>
-      <c r="B3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="B15" s="35" t="s">
+      <c r="C18" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B19" s="16" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>319</v>
-      </c>
       <c r="C19" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5696,146 +5716,146 @@
       <selection activeCell="A15" sqref="A15:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="13">
         <v>1.4</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
         <v>321</v>
       </c>
-      <c r="B12" s="35" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>215</v>
-      </c>
       <c r="C20" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="90">
       <c r="A21" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="36" t="s">
+      <c r="D22" s="36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
+      <c r="B23" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="36" t="s">
         <v>312</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>314</v>
       </c>
       <c r="D23" s="16"/>
     </row>
@@ -5843,6 +5863,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5854,7 +5879,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
@@ -5864,7 +5889,7 @@
     <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -5890,7 +5915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="51" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5910,7 +5935,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="45" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5930,7 +5955,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="52" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5950,7 +5975,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="47" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5970,7 +5995,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="53" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5978,7 +6003,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>76</v>
@@ -5990,125 +6015,125 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="B7" s="7"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="B8" s="7"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="B9" s="7"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="B10" s="7"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="B11" s="7"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="B12" s="7"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="B13" s="7"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="B14" s="7"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="B15" s="7"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" s="7"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="7"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="7"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="7"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="7"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="7"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="7"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="7"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7">
       <c r="B24" s="7"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7">
       <c r="B25" s="7"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7">
       <c r="B26" s="7"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" s="7"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7">
       <c r="B28" s="7"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7">
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7">
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7">
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7">
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="7:7">
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="7:7">
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="7:7">
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="7:7">
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="7:7">
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="7:7">
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="7:7">
       <c r="G39" s="4"/>
     </row>
   </sheetData>
@@ -6118,6 +6143,11 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6125,11 +6155,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
@@ -6138,7 +6168,7 @@
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -6149,7 +6179,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
@@ -6167,7 +6197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="45" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6175,10 +6205,10 @@
         <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>84</v>
@@ -6188,18 +6218,18 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>477</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -6212,7 +6242,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6220,7 +6250,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
@@ -6234,7 +6264,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6242,7 +6272,7 @@
         <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
@@ -6256,7 +6286,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6264,7 +6294,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
@@ -6278,7 +6308,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6290,7 +6320,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6302,7 +6332,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -6314,7 +6344,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6326,7 +6356,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6338,7 +6368,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6356,6 +6386,11 @@
     <hyperlink ref="B2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6367,7 +6402,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="39.1640625" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
@@ -6375,7 +6410,7 @@
     <col min="5" max="5" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -6402,7 +6437,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6425,7 +6460,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="50" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6433,10 +6468,10 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>39</v>
@@ -6448,15 +6483,15 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="55" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -6471,7 +6506,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="56" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6479,7 +6514,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -6494,7 +6529,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="55" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6502,7 +6537,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -6515,7 +6550,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6526,7 +6561,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6537,7 +6572,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -6548,7 +6583,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6559,7 +6594,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6570,7 +6605,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6581,7 +6616,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6592,7 +6627,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6603,7 +6638,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6614,7 +6649,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6625,7 +6660,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6636,7 +6671,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6647,7 +6682,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6658,7 +6693,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6669,7 +6704,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6680,7 +6715,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6691,7 +6726,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6702,7 +6737,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6721,6 +6756,11 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6732,7 +6772,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
@@ -6740,7 +6780,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -6773,7 +6813,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6802,7 +6842,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="105" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="105">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6831,7 +6871,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="30">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6860,7 +6900,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
@@ -6877,7 +6917,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6894,7 +6934,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6911,7 +6951,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6928,7 +6968,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -6945,7 +6985,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6962,7 +7002,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6979,7 +7019,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6996,7 +7036,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7013,7 +7053,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7030,7 +7070,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -7047,7 +7087,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7064,7 +7104,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -7081,7 +7121,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7098,7 +7138,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7115,7 +7155,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -7132,7 +7172,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7149,7 +7189,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -7166,7 +7206,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -7183,7 +7223,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -7200,7 +7240,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -7217,7 +7257,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -7234,7 +7274,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -7251,7 +7291,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -7268,7 +7308,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -7285,7 +7325,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -7302,7 +7342,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -7319,7 +7359,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -7336,7 +7376,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -7353,7 +7393,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -7370,7 +7410,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -7387,7 +7427,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -7404,7 +7444,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -7421,7 +7461,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -7438,7 +7478,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -7455,7 +7495,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -7481,6 +7521,11 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7492,14 +7537,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -7509,35 +7554,35 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>15096090558</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>15096090552</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>18688773467</v>
       </c>
@@ -7551,7 +7596,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>42551</v>
       </c>
@@ -7565,7 +7610,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>27432</v>
       </c>
@@ -7579,7 +7624,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
@@ -7587,7 +7632,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
@@ -7595,7 +7640,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
@@ -7603,7 +7648,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
@@ -7611,7 +7656,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5"/>
@@ -7619,7 +7664,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5"/>
@@ -7627,7 +7672,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5"/>
@@ -7635,7 +7680,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5"/>
@@ -7643,7 +7688,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
@@ -7651,7 +7696,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5"/>
@@ -7659,7 +7704,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -7667,7 +7712,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7675,7 +7720,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7687,6 +7732,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7698,10 +7748,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7713,7 +7768,7 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
@@ -7722,7 +7777,7 @@
     <col min="7" max="7" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7748,7 +7803,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="127" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -7774,7 +7829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="120" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7800,7 +7855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="122" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="122" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -7826,7 +7881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="127" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -7852,7 +7907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="129" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7882,6 +7937,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7893,485 +7953,485 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="60">
+      <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="60">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="60">
       <c r="A4" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="60">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="60">
       <c r="A6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="60">
       <c r="A7" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="60">
       <c r="A8" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="60">
       <c r="A9" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="60">
       <c r="A10" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>363</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="60">
       <c r="A11" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>366</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="45">
       <c r="A13" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="45">
       <c r="A14" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="45">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" s="46"/>
       <c r="C16" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="45">
       <c r="A17" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="45">
       <c r="A18" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="75">
       <c r="A20" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="45">
       <c r="A21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="45">
       <c r="A22" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:7" ht="45">
       <c r="A23" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45">
       <c r="A24" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:7" ht="45">
       <c r="A25" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:7" ht="45">
       <c r="A26" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:7" ht="45">
       <c r="A27" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B27" s="46"/>
       <c r="C27" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:7" ht="45">
       <c r="A28" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B28" s="46"/>
       <c r="C28" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -8382,5 +8442,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>